--- a/resultados/resultados_dinamicos.xlsx
+++ b/resultados/resultados_dinamicos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filipeduarte/Desktop/Doutorado UFPE/2020.1/Swarm Intelligence/Artigo/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{1F63B20B-1918-C24B-A3D0-4E34E293EC10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{B9951261-7625-DA43-8E43-80C4628922DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16560"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Algoritmo</t>
   </si>
   <si>
-    <t>RPROP</t>
-  </si>
-  <si>
     <t>PSO</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>Airline</t>
+  </si>
+  <si>
+    <t>BPROP</t>
   </si>
 </sst>
 </file>
@@ -499,13 +499,13 @@
   <dimension ref="A1:XFD20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14 16384:16384">
@@ -581,172 +581,88 @@
         <v>8</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7">
-        <v>6.8364024484908199E-6</v>
+        <v>4.9440901229238002E-4</v>
       </c>
       <c r="D3" s="7">
-        <v>1.1754745301214001E-5</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1.71943436475261</v>
-      </c>
-      <c r="F3" s="7">
-        <v>4.1668370109744401E-6</v>
-      </c>
-      <c r="G3" s="7">
-        <v>7.3632243568144797E-6</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1.7671016018676799</v>
-      </c>
-      <c r="I3" s="7">
-        <v>5.2598643653183197E-6</v>
-      </c>
-      <c r="J3" s="7">
-        <v>1.02074949542211E-5</v>
-      </c>
-      <c r="K3" s="8">
-        <v>1.94063843575999</v>
-      </c>
-      <c r="L3" s="7">
-        <v>1.0083624862331399E-5</v>
-      </c>
-      <c r="M3" s="7">
-        <v>1.8521594928543601E-5</v>
-      </c>
-      <c r="N3" s="8">
-        <v>1.83679928412778</v>
-      </c>
+        <v>6.6106598798960795E-4</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1.35636257455627</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14 16384:16384">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2.2204460492503101E-16</v>
-      </c>
-      <c r="F4" s="7">
-        <v>8.4703294725429996E-22</v>
-      </c>
-      <c r="G4" s="7">
-        <v>8.4703294725429996E-22</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2.2204460492503101E-16</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1.6940658945085999E-21</v>
-      </c>
-      <c r="J4" s="7">
-        <v>3.3881317890171999E-21</v>
-      </c>
-      <c r="K4" s="7">
-        <v>4.4408920985006202E-16</v>
-      </c>
-      <c r="L4" s="7">
-        <v>1.6940658945085999E-21</v>
-      </c>
-      <c r="M4" s="7">
-        <v>3.3881317890171999E-21</v>
-      </c>
-      <c r="N4" s="7">
-        <v>6.6613381477509304E-16</v>
-      </c>
+      <c r="C4" s="7">
+        <v>6.7842496846936198E-5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>90281100044.784195</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.23258505712487301</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14 16384:16384">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2.45142870296218E-6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4.4573431439170504E-6</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1.81826342268532</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1.9537632624339301E-6</v>
-      </c>
-      <c r="G5" s="7">
-        <v>4.1552480566369301E-6</v>
-      </c>
-      <c r="H5" s="8">
-        <v>2.1267919898649601</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2.5527577375608801E-6</v>
-      </c>
-      <c r="J5" s="7">
-        <v>3.9374190471452102E-6</v>
-      </c>
-      <c r="K5" s="8">
-        <v>1.5424178288486301</v>
-      </c>
-      <c r="L5" s="7">
-        <v>5.1359537276842798E-6</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1.4122186106025899E-5</v>
-      </c>
-      <c r="N5" s="8">
-        <v>2.7496716004085502</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14 16384:16384">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>8.4703294725429996E-22</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4.4408920985006202E-16</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1.2705494208814499E-21</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>4.4408920985006202E-16</v>
-      </c>
-      <c r="L6" s="7">
-        <v>8.4703294725429996E-22</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1.6940658945085999E-21</v>
-      </c>
-      <c r="N6" s="7">
-        <v>8.8817841970012504E-16</v>
-      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
       <c r="XFD6" s="1"/>
     </row>
     <row r="7" spans="1:14 16384:16384">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -779,20 +695,14 @@
     </row>
     <row r="9" spans="1:14 16384:16384">
       <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2.7537656799586201E-6</v>
-      </c>
-      <c r="D9" s="7">
-        <v>3.9718572646751302E-6</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1.44233668593574</v>
-      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
@@ -806,15 +716,9 @@
     <row r="10" spans="1:14 16384:16384">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="7">
-        <v>8.4703294725429996E-22</v>
-      </c>
-      <c r="D10" s="7">
-        <v>8.4703294725429996E-22</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4.4408920985006202E-16</v>
-      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -828,7 +732,7 @@
     <row r="11" spans="1:14 16384:16384">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -862,7 +766,7 @@
     <row r="13" spans="1:14 16384:16384">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>

--- a/resultados/resultados_dinamicos.xlsx
+++ b/resultados/resultados_dinamicos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filipeduarte/Desktop/Doutorado UFPE/2020.1/Swarm Intelligence/Artigo/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{B9951261-7625-DA43-8E43-80C4628922DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{71CD5252-787E-1A45-8338-057A5A382526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16560"/>
   </bookViews>
@@ -87,18 +87,13 @@
     <numFmt numFmtId="172" formatCode="#,##0.000"/>
     <numFmt numFmtId="175" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,9 +145,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -496,402 +490,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14 16384:16384">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14 16384:16384">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14 16384:16384">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>4.9440901229238002E-4</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>6.6106598798960795E-4</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>1.35636257455627</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:14 16384:16384">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="7">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="6">
         <v>6.7842496846936198E-5</v>
       </c>
-      <c r="D4" s="7">
-        <v>90281100044.784195</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="6">
+        <v>9.0281100044784196E-5</v>
+      </c>
+      <c r="E4" s="7">
         <v>0.23258505712487301</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:14 16384:16384">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:14 16384:16384">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="XFD6" s="1"/>
-    </row>
-    <row r="7" spans="1:14 16384:16384">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:14 16384:16384">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14 16384:16384">
-      <c r="A9" s="6" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:14 16384:16384">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:14 16384:16384">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14 16384:16384">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:14 16384:16384">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14 16384:16384">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14 16384:16384">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:14 16384:16384">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/resultados/resultados_dinamicos.xlsx
+++ b/resultados/resultados_dinamicos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filipeduarte/Desktop/Doutorado UFPE/2020.1/Swarm Intelligence/Artigo/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{71CD5252-787E-1A45-8338-057A5A382526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAB9F4B-EF8D-2C45-9291-5066D3654084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16560"/>
+    <workbookView xWindow="10920" yWindow="460" windowWidth="20240" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -80,15 +80,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="#,##0.000"/>
-    <numFmt numFmtId="175" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -104,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -141,41 +149,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,11 +539,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,228 +553,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="14">
         <v>4.9440901229238002E-4</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="14">
         <v>6.6106598798960795E-4</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="15">
         <v>1.35636257455627</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
+      <c r="F3" s="14">
+        <v>2.6157741925596998E-4</v>
+      </c>
+      <c r="G3" s="14">
+        <v>4.8320067389348098E-4</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1.8541992133245899</v>
+      </c>
+      <c r="I3" s="14">
+        <v>2.4505215076625099E-4</v>
+      </c>
+      <c r="J3" s="14">
+        <v>5.1943546733660903E-4</v>
+      </c>
+      <c r="K3" s="15">
+        <v>2.1190619381999198</v>
+      </c>
+      <c r="L3" s="14">
+        <v>2.82753817410584E-4</v>
+      </c>
+      <c r="M3" s="14">
+        <v>3.6607938911243E-4</v>
+      </c>
+      <c r="N3" s="15">
+        <v>1.3050025701249901</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="6">
+      <c r="A4" s="20"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="8">
         <v>6.7842496846936198E-5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="8">
         <v>9.0281100044784196E-5</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="9">
         <v>0.23258505712487301</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="F4" s="8">
+        <v>2.8261524119129302E-5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>8.9181332618338795E-5</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.30281203969763898</v>
+      </c>
+      <c r="I4" s="8">
+        <v>3.0152880723103702E-5</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1.5832025074844299E-4</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.58553058105144096</v>
+      </c>
+      <c r="L4" s="8">
+        <v>4.6528142415199099E-5</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1.22765990606047E-4</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.40479844901622802</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
+      <c r="C5" s="6">
+        <v>1.5608983979660101E-4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3.4851276726176198E-4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2.23408758815606</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1.35117408150012E-4</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3.1741143590558498E-4</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2.3491142861095899</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1.31396827642025E-4</v>
+      </c>
+      <c r="J5" s="6">
+        <v>3.8342764243572201E-4</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2.9342334624349098</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="8">
+        <v>7.9748806077405399E-6</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3.7561437020681899E-5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.23033367812484601</v>
+      </c>
+      <c r="F6" s="8">
+        <v>8.7231212901404892E-6</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5.4308165248733299E-5</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.359508633738154</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1.23262771815516E-5</v>
+      </c>
+      <c r="J6" s="8">
+        <v>9.0045632026575901E-5</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.69531294391337295</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="6"/>
@@ -733,165 +855,161 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
@@ -900,6 +1018,10 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/resultados/resultados_dinamicos.xlsx
+++ b/resultados/resultados_dinamicos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t xml:space="preserve">Série</t>
   </si>
@@ -62,20 +62,37 @@
   </si>
   <si>
     <t xml:space="preserve">Airline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0006021405475821369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0009645139035283216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.346781558231389</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0013718930515365093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.001380642641090974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2350137223509943</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000E+00"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00E+00"/>
+    <numFmt numFmtId="168" formatCode="0.000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -117,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -163,13 +180,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
@@ -214,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -255,71 +265,51 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -331,7 +321,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -339,7 +329,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -367,7 +357,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -454,187 +444,187 @@
         <v>10</v>
       </c>
       <c r="C3" s="8" t="n">
-        <v>0.0042127538019083</v>
+        <v>0.000802911531584719</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>0.0044356344589946</v>
+        <v>0.000963318407861485</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>1.24170997124167</v>
-      </c>
-      <c r="F3" s="10" t="n">
-        <v>0.00624282843035117</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>0.00638179752954125</v>
-      </c>
-      <c r="H3" s="11" t="n">
-        <v>1.08752193296656</v>
-      </c>
-      <c r="I3" s="10" t="n">
-        <v>0.00812715527841719</v>
-      </c>
-      <c r="J3" s="10" t="n">
-        <v>0.00823418159106418</v>
+        <v>1.61290639252953</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>0.00239617859176406</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>0.00253599152547984</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>1.321590640867</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>0.0222700290771205</v>
+      </c>
+      <c r="J3" s="8" t="n">
+        <v>0.0224810946700366</v>
       </c>
       <c r="K3" s="9" t="n">
-        <v>1.04717970996569</v>
-      </c>
-      <c r="L3" s="10" t="n">
-        <v>0.0202605947149489</v>
-      </c>
-      <c r="M3" s="10" t="n">
-        <v>0.0201630114529859</v>
+        <v>1.82069206565782</v>
+      </c>
+      <c r="L3" s="8" t="n">
+        <v>0.0355361102860187</v>
+      </c>
+      <c r="M3" s="8" t="n">
+        <v>0.0354262615459188</v>
       </c>
       <c r="N3" s="9" t="n">
-        <v>0.968609763433728</v>
+        <v>0.738339092498905</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="n">
-        <v>0.0038231949954953</v>
+        <v>0.00150575583311485</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.00382824868424581</v>
+        <v>0.00152069311703264</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.343876440237623</v>
-      </c>
-      <c r="F4" s="12" t="n">
-        <v>0.0039199127743477</v>
-      </c>
-      <c r="G4" s="12" t="n">
-        <v>0.0039234471561495</v>
-      </c>
-      <c r="H4" s="13" t="n">
-        <v>0.184867266110331</v>
-      </c>
-      <c r="I4" s="12" t="n">
-        <v>0.00557271467650472</v>
-      </c>
-      <c r="J4" s="14" t="n">
-        <v>0.00557823154644548</v>
-      </c>
-      <c r="K4" s="15" t="n">
-        <v>0.0828118724220373</v>
-      </c>
-      <c r="L4" s="12" t="n">
-        <v>0.0162371842679962</v>
-      </c>
-      <c r="M4" s="12" t="n">
-        <v>0.0162698607726874</v>
-      </c>
-      <c r="N4" s="15" t="n">
-        <v>0.0798416967891937</v>
+        <v>0.349468388389018</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>0.00311029022065994</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>0.00312886908491038</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0.325390540998481</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>0.107809355948227</v>
+      </c>
+      <c r="J4" s="8" t="n">
+        <v>0.107569322602297</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>0.675173328293779</v>
+      </c>
+      <c r="L4" s="8" t="n">
+        <v>0.150222862992493</v>
+      </c>
+      <c r="M4" s="8" t="n">
+        <v>0.150594830629337</v>
+      </c>
+      <c r="N4" s="9" t="n">
+        <v>0.219128745705214</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="8" t="n">
-        <v>0.0001571661903062</v>
+        <v>0.000162645675954205</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>0.000274380564046768</v>
+        <v>0.000256755358566066</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>1.75050169288402</v>
-      </c>
-      <c r="F5" s="10" t="n">
-        <v>0.00016926144521528</v>
-      </c>
-      <c r="G5" s="10" t="n">
-        <v>0.000287341337441552</v>
+        <v>1.58181648058589</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>0.000175543806678229</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>0.000225651677152255</v>
       </c>
       <c r="H5" s="9" t="n">
-        <v>1.69915734676453</v>
-      </c>
-      <c r="I5" s="10" t="n">
-        <v>0.000236710870081481</v>
-      </c>
-      <c r="J5" s="10" t="n">
-        <v>0.000207623631598332</v>
+        <v>1.29071870018381</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>0.000179777312734416</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>0.000252815575650583</v>
       </c>
       <c r="K5" s="9" t="n">
-        <v>0.885479374419356</v>
-      </c>
-      <c r="L5" s="10" t="n">
-        <v>0.000283720329915646</v>
-      </c>
-      <c r="M5" s="10" t="n">
-        <v>0.000118430461829267</v>
+        <v>1.41827303282383</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v>0.000264071308356669</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v>0.000150207921074576</v>
       </c>
       <c r="N5" s="9" t="n">
-        <v>0.425724899407845</v>
+        <v>0.577777146760632</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="8" t="n">
-        <v>1.41792164376138E-005</v>
+        <v>1.46859211138049E-005</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>3.3920944168217E-005</v>
+        <v>2.83300662879392E-005</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.197945556524774</v>
-      </c>
-      <c r="F6" s="10" t="n">
-        <v>2.3878027367507E-005</v>
-      </c>
-      <c r="G6" s="10" t="n">
-        <v>6.12244284780868E-005</v>
+        <v>0.142340977629527</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>2.33589309119896E-005</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>4.42062015210425E-005</v>
       </c>
       <c r="H6" s="9" t="n">
-        <v>0.280477800481106</v>
-      </c>
-      <c r="I6" s="10" t="n">
-        <v>4.25328402034372E-005</v>
-      </c>
-      <c r="J6" s="10" t="n">
-        <v>6.20896806020742E-005</v>
+        <v>0.231497231491586</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>2.80952651454514E-005</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>6.82698717140213E-005</v>
       </c>
       <c r="K6" s="9" t="n">
-        <v>0.234221887985214</v>
-      </c>
-      <c r="L6" s="10" t="n">
-        <v>5.70187231351757E-005</v>
-      </c>
-      <c r="M6" s="10" t="n">
-        <v>3.39622620400421E-005</v>
+        <v>0.352344154211573</v>
+      </c>
+      <c r="L6" s="8" t="n">
+        <v>4.94654735797425E-005</v>
+      </c>
+      <c r="M6" s="8" t="n">
+        <v>4.42913724557692E-005</v>
       </c>
       <c r="N6" s="9" t="n">
-        <v>0.130359820197979</v>
+        <v>0.166057226593021</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -646,123 +636,135 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="8" t="n">
-        <v>0.00543701195133189</v>
+        <v>0.00544151261730701</v>
       </c>
       <c r="D9" s="8" t="n">
-        <v>0.00546232764297288</v>
+        <v>0.00589501976975221</v>
       </c>
       <c r="E9" s="9" t="n">
-        <v>1.06049389969818</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.07566688581755</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
-      <c r="B10" s="22"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="8" t="n">
-        <v>0.00385574886144875</v>
+        <v>0.021980853225909</v>
       </c>
       <c r="D10" s="8" t="n">
-        <v>0.00381524452219997</v>
+        <v>0.0222885808773483</v>
       </c>
       <c r="E10" s="9" t="n">
-        <v>0.166054185033379</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
+        <v>1.45920081907677</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="8" t="n">
-        <v>9.43857747598616E-005</v>
+        <v>8.99780493440191E-005</v>
       </c>
       <c r="D11" s="8" t="n">
-        <v>0.000114782244751526</v>
+        <v>0.000184533423116061</v>
       </c>
       <c r="E11" s="9" t="n">
-        <v>1.30355821082418</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
+        <v>2.01226316123464</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
-      <c r="B12" s="16"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="8" t="n">
-        <v>3.33092470333423E-005</v>
+        <v>3.23476040411214E-005</v>
       </c>
       <c r="D12" s="8" t="n">
-        <v>2.70148636913928E-005</v>
+        <v>7.56283163460033E-005</v>
       </c>
       <c r="E12" s="9" t="n">
-        <v>0.323426049908003</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
+        <v>0.205699178898597</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -775,100 +777,100 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/resultados/resultados_dinamicos.xlsx
+++ b/resultados/resultados_dinamicos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t xml:space="preserve">Série</t>
   </si>
@@ -62,24 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">Airline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0006021405475821369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0009645139035283216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.346781558231389</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0013718930515365093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001380642641090974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2350137223509943</t>
   </si>
 </sst>
 </file>
@@ -224,7 +206,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -291,10 +273,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -354,10 +332,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -636,7 +614,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -652,23 +630,23 @@
       <c r="E9" s="9" t="n">
         <v>3.07566688581755</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-    </row>
-    <row r="10" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="8" t="n">
+        <v>0.000602140547582137</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>0.000964513903528322</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>3.34678155823139</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
       <c r="B10" s="16"/>
       <c r="C10" s="8" t="n">
@@ -680,21 +658,21 @@
       <c r="E10" s="9" t="n">
         <v>1.45920081907677</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+      <c r="F10" s="8" t="n">
+        <v>0.00137189305153651</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>0.00138064264109097</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>1.23501372235099</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
@@ -712,7 +690,7 @@
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
@@ -732,33 +710,33 @@
       <c r="E12" s="9" t="n">
         <v>0.205699178898597</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
@@ -776,102 +754,103 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-    </row>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="C1:E1"/>

--- a/resultados/resultados_dinamicos.xlsx
+++ b/resultados/resultados_dinamicos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filipeduarte/Desktop/Doutorado UFPE/2020.1/Swarm Intelligence/Artigo/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E0C67B-A0E7-1E45-9C1F-193E453A3EDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FED7B5F-9593-B54B-A698-7C76BB7666F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11140" yWindow="3200" windowWidth="18960" windowHeight="11300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4820" yWindow="1300" windowWidth="22060" windowHeight="13800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Série</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Airline</t>
+  </si>
+  <si>
+    <t>AWS</t>
   </si>
 </sst>
 </file>
@@ -195,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -226,9 +229,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -243,7 +243,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -257,20 +256,31 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,80 +686,80 @@
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>8.0291153158471896E-4</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>9.6331840786148505E-4</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>1.6129063925295299</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>2.3961785917640602E-3</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>2.5359915254798398E-3</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>1.321590640867</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <v>2.2270029077120501E-2</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>2.2481094670036599E-2</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <v>1.82069206565782</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <v>3.5536110286018698E-2</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="12">
         <v>3.5426261545918797E-2</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="13">
         <v>0.73833909249890495</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>1.50575583311485E-3</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>1.5206931170326399E-3</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>0.349468388389018</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>3.1102902206599399E-3</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>3.1288690849103802E-3</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>0.32539054099848103</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>0.10780935594822701</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>0.107569322602297</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>0.67517332829377896</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <v>0.15022286299249299</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <v>0.15059483062933701</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="13">
         <v>0.21912874570521401</v>
       </c>
     </row>
@@ -758,80 +768,80 @@
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>1.6264567595420499E-4</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>2.56755358566066E-4</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>1.5818164805858901</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>1.75543806678229E-4</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>2.25651677152255E-4</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>1.2907187001838101</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>1.79777312734416E-4</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>2.5281557565058301E-4</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>1.41827303282383</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <v>2.6407130835666897E-4</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <v>1.5020792107457601E-4</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="13">
         <v>0.57777714676063197</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>1.4685921113804901E-5</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>2.83300662879392E-5</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>0.14234097762952699</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>2.33589309119896E-5</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>4.4206201521042498E-5</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>0.23149723149158599</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <v>2.8095265145451399E-5</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>6.8269871714021299E-5</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <v>0.352344154211573</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="12">
         <v>4.9465473579742501E-5</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="12">
         <v>4.4291372455769202E-5</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="13">
         <v>0.166057226593021</v>
       </c>
     </row>
@@ -840,24 +850,24 @@
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -876,151 +886,188 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>5.4415126173070101E-3</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>5.8950197697522104E-3</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>3.07566688581755</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>6.02140547582137E-4</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>9.64513903528322E-4</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>3.34678155823139</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="31">
         <v>2.4696719585208401E-2</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="22">
         <v>2.5602323066225102E-2</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="23">
         <v>3.1131928962019302</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
+      <c r="L9" s="31">
+        <v>9.2073473053872701E-2</v>
+      </c>
+      <c r="M9" s="31">
+        <v>9.3631365073266401E-2</v>
+      </c>
+      <c r="N9" s="28">
+        <v>1.93828259959074</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="30">
+      <c r="C10" s="26">
         <v>2.1980853225909001E-2</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="26">
         <v>2.22885808773483E-2</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="27">
         <v>1.45920081907677</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>1.37189305153651E-3</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>1.3806426410909701E-3</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>1.2350137223509901</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="24">
         <v>0.11976604543908299</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="24">
         <v>0.12152243125211</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="25">
         <v>1.54605134988074</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
+      <c r="L10" s="24">
+        <v>0.26036211095346401</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0.26431772345266702</v>
+      </c>
+      <c r="N10" s="25">
+        <v>1.10240304670267</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>8.9978049344019103E-5</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>1.84533423116061E-4</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>2.0122631612346402</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="22">
         <v>7.7489879995301295E-5</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="22">
         <v>1.7720546853748501E-4</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="23">
         <v>2.2979089138729401</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+      <c r="I11" s="32">
+        <v>9.6030754537934494E-5</v>
+      </c>
+      <c r="J11" s="22">
+        <v>1.9632648930350001E-4</v>
+      </c>
+      <c r="K11" s="23">
+        <v>2.0787666878535398</v>
+      </c>
+      <c r="L11" s="22">
+        <v>9.6055057936504106E-5</v>
+      </c>
+      <c r="M11" s="22">
+        <v>2.2069383668476601E-4</v>
+      </c>
+      <c r="N11" s="23">
+        <v>2.2502090714230998</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="30">
+      <c r="C12" s="26">
         <v>3.2347604041121403E-5</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="26">
         <v>7.5628316346003295E-5</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="27">
         <v>0.20569917889859701</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="24">
         <v>2.1835065608556301E-5</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="24">
         <v>5.0545240234389102E-5</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="25">
         <v>0.32209970283311401</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="I12" s="33">
+        <v>3.4916210430988799E-5</v>
+      </c>
+      <c r="J12" s="24">
+        <v>7.3689743107101602E-5</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0.34581454995995597</v>
+      </c>
+      <c r="L12" s="24">
+        <v>3.7206788050790797E-5</v>
+      </c>
+      <c r="M12" s="24">
+        <v>1.02637968120969E-4</v>
+      </c>
+      <c r="N12" s="25">
+        <v>0.35696234800117199</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -1032,108 +1079,132 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
+    <row r="15" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="29">
+        <v>9.6396249412994601E-4</v>
+      </c>
+      <c r="D15" s="29">
+        <v>1.2101576458909699E-3</v>
+      </c>
+      <c r="E15" s="30">
+        <v>1.55762179998126</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+    </row>
+    <row r="16" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="24">
+        <v>1.6806782464134601E-3</v>
+      </c>
+      <c r="D16" s="24">
+        <v>1.66488162267333E-3</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.23199039624594001</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+    </row>
+    <row r="18" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+    </row>
+    <row r="20" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>

--- a/resultados/resultados_dinamicos.xlsx
+++ b/resultados/resultados_dinamicos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filipeduarte/Desktop/Doutorado UFPE/2020.1/Swarm Intelligence/Artigo/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FED7B5F-9593-B54B-A698-7C76BB7666F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FF06EE-02A5-8F4E-B348-24E1A839959F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4820" yWindow="1300" windowWidth="22060" windowHeight="13800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/resultados/resultados_dinamicos.xlsx
+++ b/resultados/resultados_dinamicos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filipeduarte/Desktop/Doutorado UFPE/2020.1/Swarm Intelligence/Artigo/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FF06EE-02A5-8F4E-B348-24E1A839959F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E320AB19-4CE3-CC4F-BE34-41EA97CE0655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4820" yWindow="1300" windowWidth="22060" windowHeight="13800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,6 +281,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,7 +606,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E17" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1132,9 +1138,15 @@
       <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="C17" s="34">
+        <v>3.5259228373457499E-4</v>
+      </c>
+      <c r="D17" s="34">
+        <v>5.0775802584416305E-4</v>
+      </c>
+      <c r="E17" s="35">
+        <v>1.4361411146527501</v>
+      </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -1148,9 +1160,15 @@
     <row r="18" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="C18" s="24">
+        <v>3.8249480151622501E-5</v>
+      </c>
+      <c r="D18" s="24">
+        <v>7.3817692922440402E-5</v>
+      </c>
+      <c r="E18" s="25">
+        <v>9.1124604197284201E-2</v>
+      </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>

--- a/resultados/resultados_dinamicos.xlsx
+++ b/resultados/resultados_dinamicos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filipeduarte/Desktop/Doutorado UFPE/2020.1/Swarm Intelligence/Artigo/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E320AB19-4CE3-CC4F-BE34-41EA97CE0655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC4D200-EA01-4147-93C1-7FC2A28E8F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="1300" windowWidth="22060" windowHeight="13800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8040" yWindow="3680" windowWidth="27940" windowHeight="15180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E18"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1101,9 +1101,15 @@
       <c r="E15" s="30">
         <v>1.55762179998126</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="F15" s="34">
+        <v>2.2041627612240898E-3</v>
+      </c>
+      <c r="G15" s="34">
+        <v>2.3593509150025898E-3</v>
+      </c>
+      <c r="H15" s="35">
+        <v>1.2388555277536799</v>
+      </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -1123,9 +1129,15 @@
       <c r="E16" s="25">
         <v>0.23199039624594001</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="F16" s="24">
+        <v>4.7989451229401396E-3</v>
+      </c>
+      <c r="G16" s="24">
+        <v>4.7925774510079299E-3</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0.16461965311353099</v>
+      </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
